--- a/outputs-HGR-r202/p__Spirochaetota.xlsx
+++ b/outputs-HGR-r202/p__Spirochaetota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,11 +460,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -482,11 +477,6 @@
         <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>c__Spirochaetia</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>c__Spirochaetia</t>
         </is>

--- a/outputs-HGR-r202/p__Spirochaetota.xlsx
+++ b/outputs-HGR-r202/p__Spirochaetota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -477,6 +482,11 @@
         <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>c__Spirochaetia</t>
         </is>

--- a/outputs-HGR-r202/p__Spirochaetota.xlsx
+++ b/outputs-HGR-r202/p__Spirochaetota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,24 +469,2572 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT10270.fa</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.571466489651332</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.571466489651332</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.571466489651332</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT10398.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.595326742779612</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.595326742779612</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.595326742779612</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT10625.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.517890166314219</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.517890166314219</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.517890166314219</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT11210.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.513084473866896</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.513084473866896</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.513084473866896</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT11332.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.549536949841246</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.549536949841246</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.549536949841246</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT11406.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.612408935339329</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.612408935339329</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.612408935339329</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT11644.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.602152167653665</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.602152167653665</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.602152167653665</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT13045.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.550643348537425</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.550643348537425</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.550643348537425</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT14741.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.550643348537425</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.550643348537425</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.550643348537425</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT15742.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.54252475530535</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.54252475530535</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.54252475530535</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1677.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.564735000908207</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.564735000908207</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.564735000908207</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT17255.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.524281286195088</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.524281286195088</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.524281286195088</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT17515.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.589758313272821</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.589758313272821</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.589758313272821</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT20287.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.480749919322168</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.480749919322168</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.480749919322168</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT20603.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.494041269993182</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.494041269993182</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.494041269993182</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT2203.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.552698130488198</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.552698130488198</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.552698130488198</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT23276.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.209919080110041</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.209919080110041</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.209919080110041</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT23295.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.551099597755841</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.551099597755841</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.551099597755841</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT24052.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.535305427854853</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.535305427854853</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.535305427854853</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT25048.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.525921462854139</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.525921462854139</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.525921462854139</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT25340.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.540908032040053</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.540908032040053</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.540908032040053</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT27169.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.571168340236213</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.571168340236213</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.571168340236213</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29189.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.515648879637083</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.515648879637083</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.515648879637083</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29214.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.527632333476484</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.527632333476484</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.527632333476484</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29221.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.516785047769687</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.516785047769687</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.516785047769687</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29476.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.475415479719193</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.475415479719193</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.475415479719193</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT32691.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.554806488416702</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.554806488416702</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.554806488416702</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34540.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.50791568284768</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.50791568284768</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.50791568284768</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34945.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.478184137138668</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.478184137138668</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.478184137138668</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT37976.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.557663730227709</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.557663730227709</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.557663730227709</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43152.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.560016665430149</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.560016665430149</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.560016665430149</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43233.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-1.510467326906286</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.510467326906286</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.510467326906286</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43329.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.511123231339134</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.511123231339134</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.511123231339134</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43835.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.55508589585729</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.55508589585729</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.55508589585729</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT45903.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.495929115261421</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.495929115261421</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.495929115261421</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47875.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.537703373060429</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.537703373060429</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.537703373060429</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT50132.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-1.551833001039591</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.551833001039591</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.551833001039591</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT50868.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-1.306646002708143</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.306646002708143</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.306646002708143</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51928.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-1.492336168397157</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.492336168397157</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.492336168397157</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT52820.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-1.275995876763925</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.275995876763925</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.275995876763925</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT52923.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-1.575856118405483</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.575856118405483</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.575856118405483</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT52941.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-1.629929761839717</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.629929761839717</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.629929761839717</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5342.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-1.337212114195876</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.337212114195876</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.337212114195876</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT56604.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-1.527231712495107</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.527231712495107</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.527231712495107</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57066.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-1.54059695989466</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.54059695989466</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.54059695989466</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57346.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-1.527231712495107</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.527231712495107</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.527231712495107</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57988.fa</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-1.557922916768784</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.557922916768784</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.557922916768784</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58133.fa</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-1.512662121098626</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.512662121098626</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.512662121098626</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58310.fa</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-1.465067233552876</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.465067233552876</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.465067233552876</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59576.fa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-1.539543165439809</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.539543165439809</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.539543165439809</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5959.fa</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-1.54140872871059</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.54140872871059</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.54140872871059</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60320.fa</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-1.580608574220193</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.580608574220193</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.580608574220193</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60370.fa</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-1.48640990914655</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.48640990914655</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.48640990914655</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60605.fa</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-1.605303323962913</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.605303323962913</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.605303323962913</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60882.fa</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-1.569308061040637</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.569308061040637</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.569308061040637</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60999.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-1.543012682765097</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.543012682765097</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.543012682765097</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61376.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-1.524393778974719</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.524393778974719</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.524393778974719</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61937.fa</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-1.549301142295427</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.549301142295427</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.549301142295427</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62054.fa</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-1.519512294035946</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.519512294035946</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.519512294035946</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6619.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-1.56160746671819</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.56160746671819</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.56160746671819</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6722.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>-1.591283638104352</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.591283638104352</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.591283638104352</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7040.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-1.523613246042612</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.523613246042612</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.523613246042612</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72119.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-1.544604309595498</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.544604309595498</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.544604309595498</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72127.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-1.481122523674594</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.481122523674594</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.481122523674594</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74329.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-1.550264148841085</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.550264148841085</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.550264148841085</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75402.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>-1.577967244855497</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.577967244855497</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.577967244855497</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75430.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-1.549312673070055</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.549312673070055</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.549312673070055</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT78923.fa</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-1.831518579936329</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.831518579936329</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.831518579936329</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80816.fa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-1.549664311378673</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.549664311378673</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.549664311378673</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT8083.fa</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>c__Spirochaetia</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="B71" t="n">
+        <v>-1.790836836412614</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.790836836412614</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.790836836412614</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81679.fa</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-1.543850607530822</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.543850607530822</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.543850607530822</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81926.fa</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-1.571285493666796</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.571285493666796</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.571285493666796</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81946.fa</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-1.494120344989965</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.494120344989965</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.494120344989965</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81987.fa</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-1.543850607530822</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.543850607530822</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.543850607530822</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82105.fa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-1.54872887324849</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.54872887324849</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.54872887324849</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82468.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-1.503831317099983</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.503831317099983</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.503831317099983</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82635.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-1.521641362862826</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.521641362862826</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.521641362862826</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82654.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-1.565997801827995</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.565997801827995</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.565997801827995</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82703.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-1.539661327209296</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.539661327209296</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.539661327209296</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82744.fa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-1.517774301395405</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.517774301395405</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.517774301395405</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89180.fa</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-1.473479613713709</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89206.fa</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-1.473479613713709</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89290.fa</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-1.473479613713709</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89315.fa</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-1.491223016066539</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.491223016066539</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.491223016066539</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89344.fa</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-1.580259235123763</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.580259235123763</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.580259235123763</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89353.fa</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-1.473479613713709</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89571.fa</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-1.513619122338962</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.513619122338962</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.513619122338962</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89719.fa</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-1.473479613713709</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90109.fa</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-1.473479613713709</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90165.fa</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-1.473479613713709</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90191.fa</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-1.491223016066539</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.491223016066539</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.491223016066539</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90290.fa</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-1.518562450975609</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.518562450975609</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.518562450975609</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90502.fa</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-1.513619122338962</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.513619122338962</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.513619122338962</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90506.fa</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-1.473479613713709</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90686.fa</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-1.460753584282936</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.460753584282936</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.460753584282936</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90976.fa</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-1.473479613713709</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91118.fa</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-1.473479613713709</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91137.fa</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-1.473479613713709</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.473479613713709</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9688.fa</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-1.489079335717041</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.489079335717041</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.489079335717041</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
         <is>
           <t>c__Spirochaetia</t>
         </is>

--- a/outputs-HGR-r202/p__Spirochaetota.xlsx
+++ b/outputs-HGR-r202/p__Spirochaetota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.571466489651332</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.571466489651332</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.571466489651332</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.595326742779612</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.595326742779612</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.595326742779612</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.517890166314219</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.517890166314219</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.517890166314219</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.513084473866896</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.513084473866896</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.513084473866896</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.549536949841246</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.549536949841246</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.549536949841246</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.612408935339329</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.612408935339329</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.612408935339329</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -629,13 +629,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.602152167653665</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.602152167653665</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.602152167653665</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.550643348537425</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.550643348537425</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1.550643348537425</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.550643348537425</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.550643348537425</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1.550643348537425</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.54252475530535</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.54252475530535</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1.54252475530535</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.564735000908207</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.564735000908207</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1.564735000908207</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.524281286195088</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.524281286195088</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1.524281286195088</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.589758313272821</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.589758313272821</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1.589758313272821</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -811,13 +811,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.480749919322168</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.480749919322168</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.480749919322168</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.494041269993182</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.494041269993182</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1.494041269993182</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.552698130488198</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.552698130488198</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1.552698130488198</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.209919080110041</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.209919080110041</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1.209919080110041</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -915,13 +915,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.551099597755841</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.551099597755841</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1.551099597755841</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.535305427854853</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.535305427854853</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1.535305427854853</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.525921462854139</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.525921462854139</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1.525921462854139</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -993,13 +993,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.540908032040053</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.540908032040053</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1.540908032040053</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.571168340236213</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.571168340236213</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1.571168340236213</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1045,13 +1045,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.515648879637083</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.515648879637083</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1.515648879637083</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.527632333476484</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.527632333476484</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1.527632333476484</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.516785047769687</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.516785047769687</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1.516785047769687</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.475415479719193</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.475415479719193</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1.475415479719193</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.554806488416702</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.554806488416702</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1.554806488416702</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.50791568284768</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.50791568284768</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1.50791568284768</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.478184137138668</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.478184137138668</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1.478184137138668</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.557663730227709</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.557663730227709</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1.557663730227709</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.560016665430149</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.560016665430149</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1.560016665430149</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1.510467326906286</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.510467326906286</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1.510467326906286</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.511123231339134</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.511123231339134</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1.511123231339134</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1331,13 +1331,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.55508589585729</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.55508589585729</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1.55508589585729</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.495929115261421</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1.495929115261421</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1.495929115261421</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.537703373060429</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.537703373060429</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1.537703373060429</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.551833001039591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.551833001039591</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1.551833001039591</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.306646002708143</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.306646002708143</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1.306646002708143</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1461,13 +1461,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.492336168397157</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.492336168397157</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1.492336168397157</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.275995876763925</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.275995876763925</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1.275995876763925</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1513,13 +1513,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.575856118405483</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1.575856118405483</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1.575856118405483</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1539,13 +1539,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1.629929761839717</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.629929761839717</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1.629929761839717</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1565,13 +1565,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.337212114195876</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.337212114195876</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1.337212114195876</v>
+        <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1591,13 +1591,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1.527231712495107</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1.527231712495107</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1.527231712495107</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1617,13 +1617,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1.54059695989466</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.54059695989466</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1.54059695989466</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1.527231712495107</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1.527231712495107</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1.527231712495107</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1665,17 +1665,17 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57988.fa</t>
+          <t>even_MAG-GUT57592.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-1.557922916768784</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1.557922916768784</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1.557922916768784</v>
+        <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1691,17 +1691,17 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58133.fa</t>
+          <t>even_MAG-GUT57988.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-1.512662121098626</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1.512662121098626</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1.512662121098626</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1717,17 +1717,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58310.fa</t>
+          <t>even_MAG-GUT58133.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-1.465067233552876</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1.465067233552876</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1.465067233552876</v>
+        <v>1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1743,17 +1743,17 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59576.fa</t>
+          <t>even_MAG-GUT58310.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-1.539543165439809</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1.539543165439809</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1.539543165439809</v>
+        <v>1</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1769,17 +1769,17 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5959.fa</t>
+          <t>even_MAG-GUT59576.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1.54140872871059</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1.54140872871059</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1.54140872871059</v>
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1795,17 +1795,17 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60320.fa</t>
+          <t>even_MAG-GUT5959.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1.580608574220193</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1.580608574220193</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1.580608574220193</v>
+        <v>1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1821,17 +1821,17 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60370.fa</t>
+          <t>even_MAG-GUT60320.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.48640990914655</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1.48640990914655</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1.48640990914655</v>
+        <v>1</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1847,17 +1847,17 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60605.fa</t>
+          <t>even_MAG-GUT60370.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1.605303323962913</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1.605303323962913</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1.605303323962913</v>
+        <v>1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1873,17 +1873,17 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60882.fa</t>
+          <t>even_MAG-GUT60605.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1.569308061040637</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1.569308061040637</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1.569308061040637</v>
+        <v>1</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1899,17 +1899,17 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60999.fa</t>
+          <t>even_MAG-GUT60882.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1.543012682765097</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1.543012682765097</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1.543012682765097</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1925,17 +1925,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61376.fa</t>
+          <t>even_MAG-GUT60999.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1.524393778974719</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1.524393778974719</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1.524393778974719</v>
+        <v>1</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1951,17 +1951,17 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61937.fa</t>
+          <t>even_MAG-GUT61376.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1.549301142295427</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1.549301142295427</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1.549301142295427</v>
+        <v>1</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1977,17 +1977,17 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62054.fa</t>
+          <t>even_MAG-GUT61937.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-1.519512294035946</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1.519512294035946</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1.519512294035946</v>
+        <v>1</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2003,17 +2003,17 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6619.fa</t>
+          <t>even_MAG-GUT62054.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1.56160746671819</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1.56160746671819</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1.56160746671819</v>
+        <v>1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2029,17 +2029,17 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6722.fa</t>
+          <t>even_MAG-GUT6619.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1.591283638104352</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1.591283638104352</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1.591283638104352</v>
+        <v>1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2055,17 +2055,17 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7040.fa</t>
+          <t>even_MAG-GUT6722.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1.523613246042612</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1.523613246042612</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1.523613246042612</v>
+        <v>1</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2081,17 +2081,17 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72119.fa</t>
+          <t>even_MAG-GUT7040.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-1.544604309595498</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1.544604309595498</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1.544604309595498</v>
+        <v>1</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2107,17 +2107,17 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72127.fa</t>
+          <t>even_MAG-GUT72119.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1.481122523674594</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1.481122523674594</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1.481122523674594</v>
+        <v>1</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2133,17 +2133,17 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74329.fa</t>
+          <t>even_MAG-GUT72127.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1.550264148841085</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1.550264148841085</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1.550264148841085</v>
+        <v>1</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2159,17 +2159,17 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75402.fa</t>
+          <t>even_MAG-GUT74329.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-1.577967244855497</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1.577967244855497</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1.577967244855497</v>
+        <v>1</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2185,17 +2185,17 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75430.fa</t>
+          <t>even_MAG-GUT75402.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1.549312673070055</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1.549312673070055</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1.549312673070055</v>
+        <v>1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2211,17 +2211,17 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78923.fa</t>
+          <t>even_MAG-GUT75430.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1.831518579936329</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1.831518579936329</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1.831518579936329</v>
+        <v>1</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2237,17 +2237,17 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80816.fa</t>
+          <t>even_MAG-GUT78923.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-1.549664311378673</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1.549664311378673</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1.549664311378673</v>
+        <v>1</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2263,17 +2263,17 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8083.fa</t>
+          <t>even_MAG-GUT80816.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-1.790836836412614</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1.790836836412614</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1.790836836412614</v>
+        <v>1</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2289,17 +2289,17 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81679.fa</t>
+          <t>even_MAG-GUT8083.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1.543850607530822</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1.543850607530822</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1.543850607530822</v>
+        <v>1</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2315,17 +2315,17 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81926.fa</t>
+          <t>even_MAG-GUT81679.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-1.571285493666796</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1.571285493666796</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>1.571285493666796</v>
+        <v>1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2341,17 +2341,17 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81946.fa</t>
+          <t>even_MAG-GUT81926.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-1.494120344989965</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1.494120344989965</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1.494120344989965</v>
+        <v>1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2367,17 +2367,17 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81987.fa</t>
+          <t>even_MAG-GUT81946.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1.543850607530822</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1.543850607530822</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1.543850607530822</v>
+        <v>1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2393,17 +2393,17 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82105.fa</t>
+          <t>even_MAG-GUT81987.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-1.54872887324849</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1.54872887324849</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1.54872887324849</v>
+        <v>1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2419,17 +2419,17 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82468.fa</t>
+          <t>even_MAG-GUT82105.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-1.503831317099983</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1.503831317099983</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1.503831317099983</v>
+        <v>1</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2445,17 +2445,17 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82635.fa</t>
+          <t>even_MAG-GUT82468.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-1.521641362862826</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1.521641362862826</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1.521641362862826</v>
+        <v>1</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2471,17 +2471,17 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82654.fa</t>
+          <t>even_MAG-GUT82635.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-1.565997801827995</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1.565997801827995</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1.565997801827995</v>
+        <v>1</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2497,17 +2497,17 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82703.fa</t>
+          <t>even_MAG-GUT82654.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-1.539661327209296</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1.539661327209296</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1.539661327209296</v>
+        <v>1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2523,17 +2523,17 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82744.fa</t>
+          <t>even_MAG-GUT82703.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1.517774301395405</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1.517774301395405</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1.517774301395405</v>
+        <v>1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2549,17 +2549,17 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89180.fa</t>
+          <t>even_MAG-GUT82744.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1.473479613713709</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2575,17 +2575,17 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89206.fa</t>
+          <t>even_MAG-GUT89180.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1.473479613713709</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2601,17 +2601,17 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89290.fa</t>
+          <t>even_MAG-GUT89206.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1.473479613713709</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2627,17 +2627,17 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89315.fa</t>
+          <t>even_MAG-GUT89290.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1.491223016066539</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1.491223016066539</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1.491223016066539</v>
+        <v>1</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2653,17 +2653,17 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89344.fa</t>
+          <t>even_MAG-GUT89315.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-1.580259235123763</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1.580259235123763</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1.580259235123763</v>
+        <v>1</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2679,17 +2679,17 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89353.fa</t>
+          <t>even_MAG-GUT89344.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1.473479613713709</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2705,17 +2705,17 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89571.fa</t>
+          <t>even_MAG-GUT89353.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1.513619122338962</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1.513619122338962</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1.513619122338962</v>
+        <v>1</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2731,17 +2731,17 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89719.fa</t>
+          <t>even_MAG-GUT89571.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1.473479613713709</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2757,17 +2757,17 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90109.fa</t>
+          <t>even_MAG-GUT89719.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-1.473479613713709</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2783,17 +2783,17 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90165.fa</t>
+          <t>even_MAG-GUT90109.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1.473479613713709</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2809,17 +2809,17 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90191.fa</t>
+          <t>even_MAG-GUT90165.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-1.491223016066539</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1.491223016066539</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1.491223016066539</v>
+        <v>1</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2835,17 +2835,17 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90290.fa</t>
+          <t>even_MAG-GUT90191.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1.518562450975609</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1.518562450975609</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1.518562450975609</v>
+        <v>1</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2861,17 +2861,17 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90502.fa</t>
+          <t>even_MAG-GUT90290.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-1.513619122338962</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1.513619122338962</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1.513619122338962</v>
+        <v>1</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2887,17 +2887,17 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90506.fa</t>
+          <t>even_MAG-GUT90502.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1.473479613713709</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2913,17 +2913,17 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90686.fa</t>
+          <t>even_MAG-GUT90506.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1.460753584282936</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1.460753584282936</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1.460753584282936</v>
+        <v>1</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2939,17 +2939,17 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90976.fa</t>
+          <t>even_MAG-GUT90686.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-1.473479613713709</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2965,17 +2965,17 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91118.fa</t>
+          <t>even_MAG-GUT90976.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1.473479613713709</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2991,17 +2991,17 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91137.fa</t>
+          <t>even_MAG-GUT91118.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1.473479613713709</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1.473479613713709</v>
+        <v>1</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3017,24 +3017,50 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT91137.fa</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9688.fa</t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>-1.489079335717041</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.489079335717041</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1.489079335717041</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>c__Spirochaetia</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>c__Spirochaetia</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
         <is>
           <t>c__Spirochaetia</t>
         </is>
